--- a/AddCard.xlsx
+++ b/AddCard.xlsx
@@ -69,67 +69,67 @@
     <t>中信银行</t>
   </si>
   <si>
+    <t>中信白金菁英卡</t>
+  </si>
+  <si>
     <t>中信i白金信用卡</t>
   </si>
   <si>
-    <t>中信海航信用卡</t>
-  </si>
-  <si>
     <t>平安银行</t>
   </si>
   <si>
-    <t>平安标准卡</t>
+    <t>平安小白金</t>
+  </si>
+  <si>
+    <t>广发银行</t>
+  </si>
+  <si>
+    <t>广发臻尚白金信用卡</t>
+  </si>
+  <si>
+    <t>农业银行</t>
+  </si>
+  <si>
+    <t>农行金穗QQ联名IC卡</t>
+  </si>
+  <si>
+    <t>广州银行</t>
+  </si>
+  <si>
+    <t>广州银行南航明珠白金信用卡（精英版）</t>
+  </si>
+  <si>
+    <t>浦发银行</t>
+  </si>
+  <si>
+    <t>浦发尊尚白金卡</t>
+  </si>
+  <si>
+    <t>浦发Visa白金卡(简约版)</t>
+  </si>
+  <si>
+    <t>花旗银行</t>
+  </si>
+  <si>
+    <t>花旗礼程卡</t>
+  </si>
+  <si>
+    <t>华夏银行</t>
+  </si>
+  <si>
+    <t>华夏精英•尊尚白金信用卡</t>
+  </si>
+  <si>
+    <t>华夏标准IC银联白金信用卡</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>招商YOUNG卡(黑)</t>
   </si>
   <si>
     <t>普卡</t>
-  </si>
-  <si>
-    <t>广发银行</t>
-  </si>
-  <si>
-    <t>广发臻尚白金信用卡</t>
-  </si>
-  <si>
-    <t>农业银行</t>
-  </si>
-  <si>
-    <t>农行金穗QQ联名IC卡</t>
-  </si>
-  <si>
-    <t>广州银行</t>
-  </si>
-  <si>
-    <t>广州银行南航明珠白金信用卡（精英版）</t>
-  </si>
-  <si>
-    <t>浦发银行</t>
-  </si>
-  <si>
-    <t>浦发尊尚白金卡</t>
-  </si>
-  <si>
-    <t>浦发Visa白金卡(简约版)</t>
-  </si>
-  <si>
-    <t>花旗银行</t>
-  </si>
-  <si>
-    <t>花旗礼程卡</t>
-  </si>
-  <si>
-    <t>华夏银行</t>
-  </si>
-  <si>
-    <t>华夏精英•尊尚白金信用卡</t>
-  </si>
-  <si>
-    <t>华夏标准IC银联白金信用卡</t>
-  </si>
-  <si>
-    <t>招商银行</t>
-  </si>
-  <si>
-    <t>招商YOUNG卡(黑)</t>
   </si>
   <si>
     <t>渣打银行</t>
@@ -209,63 +209,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,7 +242,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,55 +293,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,25 +368,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,157 +548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,32 +562,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,6 +595,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -640,6 +634,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -650,15 +659,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -667,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,133 +679,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1218,39 +1218,39 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -1258,13 +1258,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1272,13 +1272,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -1286,30 +1286,30 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1317,16 +1317,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1334,16 +1334,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
         <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1374,7 +1374,7 @@
         <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5">
